--- a/Part 2/Report/ProgressiveChanges.xlsx
+++ b/Part 2/Report/ProgressiveChanges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calummcmeekin/Documents/GitHub/MInf-Project/Part 2/Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calum/Documents/GitHub/MInf-Project/Part 2/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE58F23-5BF6-5B4D-8396-EB6DF13A073B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF247A-AA40-AD43-B7F4-59ECAC7E9BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{ED257D8D-35C5-3A4F-86B5-5424E8C4B30F}"/>
+    <workbookView xWindow="0" yWindow="14620" windowWidth="51200" windowHeight="14180" xr2:uid="{ED257D8D-35C5-3A4F-86B5-5424E8C4B30F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Images</t>
   </si>
@@ -142,13 +142,121 @@
   </si>
   <si>
     <t>[9.9984479e-01 4.8069769e-06 1.5038016e-04]</t>
+  </si>
+  <si>
+    <t>[9.8998392e-01 5.5059977e-04 9.4655473e-03]</t>
+  </si>
+  <si>
+    <t>[0.72419554 0.02877024 0.24703424]</t>
+  </si>
+  <si>
+    <t>[9.932459e-01 4.432014e-04 6.310933e-03]</t>
+  </si>
+  <si>
+    <t>[9.919144e-01 9.400696e-04 7.145561e-03]</t>
+  </si>
+  <si>
+    <t>[9.997998e-01 2.670350e-05 1.734978e-04]</t>
+  </si>
+  <si>
+    <t>[0.92275554 0.00397269 0.07327183]</t>
+  </si>
+  <si>
+    <t>[0.3458214  0.34495345 0.3092251 ]</t>
+  </si>
+  <si>
+    <t>[0.08832029 0.3227117  0.5889679 ]</t>
+  </si>
+  <si>
+    <t>[0.04913418 0.531836   0.4190299 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.93645287 0.01020132 0.05334585]</t>
+  </si>
+  <si>
+    <t>[0.05339504 0.10717181 0.83943313]</t>
+  </si>
+  <si>
+    <t>[0.4622319  0.05522226 0.48254585]</t>
+  </si>
+  <si>
+    <t>New Model</t>
+  </si>
+  <si>
+    <t>[0.09457297 0.13478373 0.7706433 ]</t>
+  </si>
+  <si>
+    <t>[0.8921771  0.02790239 0.07992058]</t>
+  </si>
+  <si>
+    <t>[0.05996181 0.6485746  0.29146355]</t>
+  </si>
+  <si>
+    <t>[0.9923161  0.00444266 0.0032412 ]</t>
+  </si>
+  <si>
+    <t>[9.9963129e-01 3.3021475e-05 3.3567619e-04]</t>
+  </si>
+  <si>
+    <t>[0.50927913 0.04887991 0.44184098]</t>
+  </si>
+  <si>
+    <t>[9.8088062e-01 3.7030489e-04 1.8748986e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.05952593 0.04210893 0.8983652 ]</t>
+  </si>
+  <si>
+    <t>[9.9400604e-01 2.0232944e-04 5.7916553e-03]</t>
+  </si>
+  <si>
+    <t>[9.9994791e-01 4.0689979e-06 4.8021917e-05]</t>
+  </si>
+  <si>
+    <t>[0.8370072  0.00511094 0.15788178]</t>
+  </si>
+  <si>
+    <t>[9.8031574e-01 4.9891503e-04 1.9185355e-02]</t>
+  </si>
+  <si>
+    <t>[0.083865   0.21626286 0.69987214]</t>
+  </si>
+  <si>
+    <t>[0.9901664  0.00364984 0.00618367]</t>
+  </si>
+  <si>
+    <t>[9.9991536e-01 9.0187577e-06 7.5592099e-05]</t>
+  </si>
+  <si>
+    <t>[9.8441398e-01 5.0304527e-04 1.5082935e-02]</t>
+  </si>
+  <si>
+    <t>4.tif</t>
+  </si>
+  <si>
+    <t>[0.10360768 0.8400394  0.05635295]</t>
+  </si>
+  <si>
+    <t>[0.16650838 0.08881929 0.7446724 ]</t>
+  </si>
+  <si>
+    <t>[0.39184314 0.01761306 0.59054375]</t>
+  </si>
+  <si>
+    <t>[0.3597672  0.06048596 0.5797468 ]</t>
+  </si>
+  <si>
+    <t>[0.42303258 0.04154103 0.5354263 ]</t>
+  </si>
+  <si>
+    <t>[0.60070807 0.03026631 0.36902556]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,8 +293,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +329,36 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -224,12 +375,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -547,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AC90C5-1980-5742-A192-CC50C84D975E}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,6 +875,167 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-53.113061459999997</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-53.106016660000002</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-53.249289040000001</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-53.238562001661499</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-53.613270679999999</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-53.532940750000002</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
